--- a/izakaya-note/public/rare.xlsx
+++ b/izakaya-note/public/rare.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mySpace\izakaya\izakaya-note\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84098866-D6CF-476E-B37E-554A5017E39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF987A6F-91BD-4147-8401-B96F75DCB5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="287">
   <si>
     <t>喜好·料理</t>
   </si>
@@ -417,14 +417,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>高级、甜、生、西式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>西洋酒、古典、水果、甘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>藤原妹红</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -795,30 +787,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>【DLC1】爱丽丝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【DLC1】矢田寺成美</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>魔法森林、命莲寺</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>【DLC1】犬走椛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【DLC1】河城荷取</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【DLC1】东风谷早苗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>重油、生、猎奇、灼热</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -827,38 +799,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>【DLC1】饕餮尤魔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>妖怪之山、妖怪兽道、博丽神社、红魔馆、迷途竹林、魔法森林、旧地狱、地灵殿、命莲寺、神灵庙</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>【DLC2】黑谷山女</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>重油、咸、灼热</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>【DLC2】水桥帕露西</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【DLC2】星熊勇仪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>素、小巧、猎奇</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>【DLC2】火焰猫燐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>生、灼热</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -867,63 +819,235 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>【DLC2】古明地觉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【DLC2】灵乌路空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【DLC2】古明地恋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>地灵殿、妖怪兽道、人间之里、博丽神社、红魔馆、迷途竹林、魔法森林、妖怪之山、旧地狱、命莲寺、神灵庙</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>【DLC3】多多良小伞</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【DLC3】封兽鵺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>可加热、烧酒、古典、直饮</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>【DLC3】村纱水蜜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【DLC3】苏我屠自古</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【DLC3】物部布都</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【DLC3】霍青娥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【DLC3】二岩猯藏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【DLC2.5】摩多罗隐岐奈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>4950－5000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级、甜、生、西式、传说、流行·喜爱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500－2000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱丽丝</t>
+  </si>
+  <si>
+    <t>矢田寺成美</t>
+  </si>
+  <si>
+    <t>犬走椛</t>
+  </si>
+  <si>
+    <t>河城荷取</t>
+  </si>
+  <si>
+    <t>东风谷早苗</t>
+  </si>
+  <si>
+    <t>饕餮尤魔</t>
+  </si>
+  <si>
+    <t>黑谷山女</t>
+  </si>
+  <si>
+    <t>水桥帕露西</t>
+  </si>
+  <si>
+    <t>星熊勇仪</t>
+  </si>
+  <si>
+    <t>火焰猫燐</t>
+  </si>
+  <si>
+    <t>古明地觉</t>
+  </si>
+  <si>
+    <t>灵乌路空</t>
+  </si>
+  <si>
+    <t>古明地恋</t>
+  </si>
+  <si>
+    <t>多多良小伞</t>
+  </si>
+  <si>
+    <t>封兽鵺</t>
+  </si>
+  <si>
+    <t>村纱水蜜</t>
+  </si>
+  <si>
+    <t>400－600</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏我屠自古</t>
+  </si>
+  <si>
+    <t>物部布都</t>
+  </si>
+  <si>
+    <t>霍青娥</t>
+  </si>
+  <si>
+    <t>二岩猯藏</t>
+  </si>
+  <si>
+    <t>射命丸文</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>500－600</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>招牌、适合拍照、流行·喜爱、下酒、肉、家常、和风</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅蒂欣</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>200－400</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>适合拍照、甜、梦幻、毒、凉爽、招牌、小巧、菌类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风见幽香</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200－1800</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级、传说、清淡、不可思议、梦幻、流行·喜爱、特产、西式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼人正邪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>300－600</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量涌现、灼热、不可思议、重油、下酒、猎奇、燃起来了、流行·厌恶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>少名针妙丸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>600－1200</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小巧、甜、传说、文化底蕴、适合拍照、很和风、燃起来了、流行·喜爱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>今泉影狼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>家常、和风、适合拍照、肉、山珍、凉爽、流行·喜爱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西洋酒、古典、水果、甘、高酒精</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提神、烧酒、高酒精、可加冰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果、无酒精、苦、甘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西洋酒、利口酒、现代、鸡尾酒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中酒精、烧酒、直饮、辛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>低酒精、气泡、可加热、古典</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中酒精、直饮、清酒、可加冰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳花田、妖怪兽道、人间之里、博丽神社、红魔馆、迷途竹林、魔法森林、妖怪之山、旧地狱、地灵殿、命莲寺、神灵庙、辉针城</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳花田</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>辉针城</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>辉针城、迷途竹林</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸、实惠、辣、酸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西式、流行·厌恶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>文化底蕴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>灼热、咸、和风、饱腹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级、流行·喜爱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大份、西式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>灼热</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -944,6 +1068,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -953,7 +1084,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -976,67 +1107,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF505050"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF505050"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF505050"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF505050"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF505050"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF505050"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF505050"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1045,19 +1122,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1364,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F48"/>
+      <selection activeCell="E2" sqref="E2:E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1408,7 +1473,7 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>87</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1428,7 +1493,7 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1448,7 +1513,7 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1468,7 +1533,7 @@
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1478,7 +1543,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1488,7 +1553,7 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>95</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1498,7 +1563,7 @@
         <v>96</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1508,7 +1573,7 @@
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -1518,7 +1583,7 @@
         <v>20</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1528,7 +1593,7 @@
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1548,7 +1613,7 @@
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>102</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -1568,7 +1633,7 @@
       <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1588,7 +1653,7 @@
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1598,7 +1663,7 @@
         <v>33</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1608,7 +1673,7 @@
       <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1628,7 +1693,7 @@
       <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1648,7 +1713,7 @@
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -1668,7 +1733,7 @@
       <c r="B15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>116</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -1686,90 +1751,90 @@
         <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>119</v>
+        <v>228</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>120</v>
+        <v>269</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>25</v>
+        <v>280</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>114</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>47</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>50</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>165</v>
+      <c r="C20" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>65</v>
@@ -1783,36 +1848,36 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="E21" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="F21" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>78</v>
@@ -1823,39 +1888,39 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>80</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>81</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>82</v>
@@ -1863,16 +1928,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>75</v>
@@ -1888,466 +1953,558 @@
       <c r="B26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>54</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="F29" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>146</v>
-      </c>
       <c r="F31" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>170</v>
+      <c r="C33" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="E39" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="F42" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="F43" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="E45" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="F45" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="E47" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="F47" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>25</v>
+        <v>253</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="8"/>
+      <c r="A49" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>279</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/izakaya-note/public/rare.xlsx
+++ b/izakaya-note/public/rare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mySpace\izakaya\izakaya-note\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF987A6F-91BD-4147-8401-B96F75DCB5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AEE266-4384-4BF8-ABEC-F0D2CA7E1249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="296">
   <si>
     <t>喜好·料理</t>
   </si>
@@ -156,9 +156,6 @@
     <t>利口酒、鸡尾酒、气泡</t>
   </si>
   <si>
-    <t>蕾米莉亚</t>
-  </si>
-  <si>
     <t>300－600</t>
   </si>
   <si>
@@ -222,9 +219,6 @@
     <t>无酒精、可加热、水果</t>
   </si>
   <si>
-    <t>重油、猎奇</t>
-  </si>
-  <si>
     <t>妖怪兽道、人间之里、博丽神社、迷途竹林</t>
   </si>
   <si>
@@ -258,9 +252,6 @@
     <t>家常、水产、辣、中华、流行·喜爱</t>
   </si>
   <si>
-    <t>下酒、重油、生、流行·厌恶</t>
-  </si>
-  <si>
     <t>妖怪兽道、人间之里、博丽神社、红魔馆、迷途竹林</t>
   </si>
   <si>
@@ -357,10 +348,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>博丽神社、妖怪之山</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>比那名居天子</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -421,10 +408,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>辣、果味、灼热、燃起来了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>烧酒、苦、辛</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -469,10 +452,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>魔法森林</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>清淡、山珍、文化底蕴、特产、和风</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -771,22 +750,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>博丽神社、妖怪之山、旧地狱、神灵庙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>博丽神社、红魔馆、迷途竹林、神灵庙</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>妖怪兽道、人间之里、博丽神社、红魔馆、迷途竹林、魔法森林、妖怪之山、命莲寺、神灵庙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法森林、妖怪兽道、人间之里、博丽神社、红魔馆、迷途竹林、妖怪之山、旧地狱、地灵殿、命莲寺、神灵庙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>魔法森林、命莲寺</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -799,10 +766,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>妖怪之山、妖怪兽道、博丽神社、红魔馆、迷途竹林、魔法森林、旧地狱、地灵殿、命莲寺、神灵庙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>重油、咸、灼热</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -819,235 +782,331 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>地灵殿、妖怪兽道、人间之里、博丽神社、红魔馆、迷途竹林、魔法森林、妖怪之山、旧地狱、命莲寺、神灵庙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>可加热、烧酒、古典、直饮</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>1500－2000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖怪兽道、魔法森林、太阳花田</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人间之里、太阳花田</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>博丽神社、妖怪之山、辉针城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>博丽神社、妖怪之山、旧地狱、神灵庙、太阳花田</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蕾米莉亚（剧情）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级、甜、生、西式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西洋酒、古典、水果、甘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辣、果味、灼热、燃起来了、烧烤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷途竹林、辉针城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重油、猎奇、咸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下酒、重油、生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖怪兽道、人间之里、博丽神社、红魔馆、迷途竹林、魔法森林、妖怪之山、命莲寺、神灵庙、太阳花田、辉针城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法森林、妖怪兽道、人间之里、博丽神社、红魔馆、迷途竹林、妖怪之山、旧地狱、地灵殿、命莲寺、神灵庙、太阳花田、辉针城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC1】爱丽丝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法森林、太阳花田</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC1】矢田寺成美</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC1】犬走椛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC1】河城荷取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC1】东风谷早苗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC1】饕餮尤魔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖怪之山、妖怪兽道、博丽神社、红魔馆、迷途竹林、魔法森林、旧地狱、地灵殿、命莲寺、神灵庙、太阳花田、辉针城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC2】黑谷山女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC2】水桥帕露西</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC2】星熊勇仪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC2】火焰猫燐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC2】古明地觉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC2】灵乌路空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC2】古明地恋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地灵殿、妖怪兽道、人间之里、博丽神社、红魔馆、迷途竹林、魔法森林、妖怪之山、旧地狱、命莲寺、神灵庙、太阳花田、辉针城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC3】多多良小伞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命莲寺、辉针城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC3】封兽鵺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC3】村纱水蜜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC3】苏我屠自古</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC3】物部布都</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC3】霍青娥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC3】二岩猯藏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC4】梅蒂欣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200－400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>招牌、小巧、甜、毒、凉爽、梦幻、适合拍照、菌类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文化底蕴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳花田</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC4】射命丸文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500－600</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>招牌、家常、肉、下酒、适合拍照、和风、流行·喜爱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高酒精、可加冰、烧酒、提神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西式、流行·厌恶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳花田、妖怪兽道、人间之里、博丽神社、红魔馆、迷途竹林、魔法森林、妖怪之山、旧地狱、地灵殿、命莲寺、神灵庙、辉针城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC4】风见幽香</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200－1800</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清淡、高级、传说、梦幻、不可思议、特产、西式、流行·喜爱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利口酒、西洋酒、鸡尾酒、现代</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱腹、咸、灼热、和风</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC4】少名针妙丸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>600－1200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小巧、传说、甜、燃起来了、适合拍照、文化底蕴、和风、流行·喜爱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低酒精、可加热、古典、气泡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大份、西式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辉针城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC4】今泉影狼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>300－600</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家常、肉、山珍、凉爽、适合拍照、和风、流行·喜爱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中酒精、可加冰、清酒、直饮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灼热</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辉针城、迷途竹林</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC4】鬼人正邪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下酒、重油、猎奇、灼热、不可思议、力量涌现、燃起来了、流行·厌恶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中酒精、烧酒、直饮、辛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级、流行·喜爱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC4】蕾米莉亚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>4950－5000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级、甜、生、西式、传说、流行·喜爱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1500－2000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱丽丝</t>
-  </si>
-  <si>
-    <t>矢田寺成美</t>
-  </si>
-  <si>
-    <t>犬走椛</t>
-  </si>
-  <si>
-    <t>河城荷取</t>
-  </si>
-  <si>
-    <t>东风谷早苗</t>
-  </si>
-  <si>
-    <t>饕餮尤魔</t>
-  </si>
-  <si>
-    <t>黑谷山女</t>
-  </si>
-  <si>
-    <t>水桥帕露西</t>
-  </si>
-  <si>
-    <t>星熊勇仪</t>
-  </si>
-  <si>
-    <t>火焰猫燐</t>
-  </si>
-  <si>
-    <t>古明地觉</t>
-  </si>
-  <si>
-    <t>灵乌路空</t>
-  </si>
-  <si>
-    <t>古明地恋</t>
-  </si>
-  <si>
-    <t>多多良小伞</t>
-  </si>
-  <si>
-    <t>封兽鵺</t>
-  </si>
-  <si>
-    <t>村纱水蜜</t>
-  </si>
-  <si>
-    <t>400－600</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>苏我屠自古</t>
-  </si>
-  <si>
-    <t>物部布都</t>
-  </si>
-  <si>
-    <t>霍青娥</t>
-  </si>
-  <si>
-    <t>二岩猯藏</t>
-  </si>
-  <si>
-    <t>射命丸文</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>500－600</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>招牌、适合拍照、流行·喜爱、下酒、肉、家常、和风</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅蒂欣</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>200－400</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>适合拍照、甜、梦幻、毒、凉爽、招牌、小巧、菌类</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>风见幽香</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200－1800</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级、传说、清淡、不可思议、梦幻、流行·喜爱、特产、西式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>鬼人正邪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>300－600</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量涌现、灼热、不可思议、重油、下酒、猎奇、燃起来了、流行·厌恶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>少名针妙丸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>600－1200</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小巧、甜、传说、文化底蕴、适合拍照、很和风、燃起来了、流行·喜爱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>今泉影狼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>家常、和风、适合拍照、肉、山珍、凉爽、流行·喜爱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>西洋酒、古典、水果、甘、高酒精</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>提神、烧酒、高酒精、可加冰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>水果、无酒精、苦、甘</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>西洋酒、利口酒、现代、鸡尾酒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中酒精、烧酒、直饮、辛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>低酒精、气泡、可加热、古典</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中酒精、直饮、清酒、可加冰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阳花田、妖怪兽道、人间之里、博丽神社、红魔馆、迷途竹林、魔法森林、妖怪之山、旧地狱、地灵殿、命莲寺、神灵庙、辉针城</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阳花田</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>辉针城</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>辉针城、迷途竹林</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>咸、实惠、辣、酸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>西式、流行·厌恶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>文化底蕴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>灼热、咸、和风、饱腹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级、流行·喜爱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>大份、西式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>灼热</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级、传说、甜、生、西式、流行·喜爱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高酒精、西洋酒、古典、水果、甘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实惠、酸、辣、咸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>博丽神社、红魔馆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC4】芙兰朵露</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC4】若鹭姬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC2.5】摩多罗隐岐奈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1069,9 +1128,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1113,17 +1178,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1429,52 +1497,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E53"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection sqref="A1:F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="61.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="54.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33" style="2" customWidth="1"/>
-    <col min="6" max="6" width="100.21875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33" style="1" customWidth="1"/>
+    <col min="6" max="6" width="100.21875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>85</v>
+      <c r="F1" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>4</v>
@@ -1483,14 +1551,14 @@
         <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>88</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1503,34 +1571,34 @@
         <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1543,78 +1611,78 @@
         <v>16</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>24</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>26</v>
@@ -1628,9 +1696,9 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1643,41 +1711,41 @@
         <v>30</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>104</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>12</v>
@@ -1688,822 +1756,902 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>269</v>
+        <v>224</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>280</v>
+        <v>25</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>215</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>115</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>120</v>
+        <v>225</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="F18" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="F19" s="3" t="s">
-        <v>128</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>156</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>230</v>
+        <v>158</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B22" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>68</v>
+        <v>175</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>55</v>
+        <v>168</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="D26" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="F26" s="3" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="F27" s="3" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>132</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>45</v>
+        <v>233</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>55</v>
+        <v>234</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>56</v>
+        <v>235</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B32" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>69</v>
+        <v>237</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B34" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>55</v>
+        <v>240</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="F35" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B36" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B37" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="D37" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>64</v>
+        <v>243</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>157</v>
+        <v>244</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>170</v>
+        <v>245</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B41" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>189</v>
+        <v>249</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>64</v>
+        <v>251</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>199</v>
+        <v>252</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>203</v>
+        <v>253</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>206</v>
+        <v>254</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>270</v>
+        <v>169</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B50" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>262</v>
+        <v>271</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>272</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>265</v>
+        <v>277</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>278</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>262</v>
+        <v>283</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>278</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>286</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
